--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_BTC-USDT_1w/equity_curve.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_BTC-USDT_1w/equity_curve.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1663.68288659168</v>
+        <v>1039.8018041198</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -592,15 +592,15 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1661.691896191681</v>
+        <v>1038.5574351198</v>
       </c>
       <c r="B26">
-        <v>0.001196736719507152</v>
+        <v>0.001196736719507263</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1628.25097075168</v>
+        <v>1017.6568567198</v>
       </c>
       <c r="B27">
         <v>0.0212972773390655</v>
@@ -608,23 +608,23 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1637.304433151681</v>
+        <v>1023.3152707198</v>
       </c>
       <c r="B28">
-        <v>0.01585545758304963</v>
+        <v>0.01585545758304974</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1616.54028339168</v>
+        <v>1010.3376771198</v>
       </c>
       <c r="B29">
-        <v>0.02833629147714523</v>
+        <v>0.02833629147714534</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1665.81657267168</v>
+        <v>1041.1353579198</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2026.76625939168</v>
+        <v>1266.7289121198</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2203.82267347168</v>
+        <v>1377.3891709198</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2303.55731219168</v>
+        <v>1439.7233201198</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2225.51916595168</v>
+        <v>1390.9494787198</v>
       </c>
       <c r="B34">
         <v>0.03387723232540374</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2114.701508031681</v>
+        <v>1321.6884425198</v>
       </c>
       <c r="B35">
         <v>0.08198441738804241</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2354.605727551681</v>
+        <v>1471.6285797198</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2285.48413299168</v>
+        <v>1428.4275831198</v>
       </c>
       <c r="B37">
         <v>0.02935591031279483</v>
@@ -694,18 +694,18 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2177.053735231681</v>
+        <v>1360.6585845198</v>
       </c>
       <c r="B38">
-        <v>0.07540625177388771</v>
+        <v>0.0754062517738876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2177.053735231681</v>
+        <v>1360.6585845198</v>
       </c>
       <c r="B39">
-        <v>0.07540625177388771</v>
+        <v>0.0754062517738876</v>
       </c>
       <c r="C39" s="2">
         <v>21</v>
